--- a/data/trans_orig/P32A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C56A6EF3-617B-4B71-A9E5-C898F28FED10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C5A68B6-C915-4090-A95D-1355528CE52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BCB05E0-1CE0-4172-922D-1F85773D71A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39ED7364-C5E3-442E-9602-D1D044FA60EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>7,32%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>91,57%</t>
+    <t>92,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,8%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -128,7 +128,7 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>3,06%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -140,13 +140,13 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>96,94%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -158,7 +158,7 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>97,83%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -173,22 +173,22 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,97%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -197,10 +197,10 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -209,826 +209,826 @@
     <t>2,3%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BF222-8607-4736-A156-33A74CF5954B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4C1EED-BBA2-471A-8D73-1F17E616F826}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2375,7 +2375,7 @@
         <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2390,13 @@
         <v>1860815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>870</v>
@@ -2408,10 +2408,10 @@
         <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>2696</v>
@@ -2420,13 +2420,13 @@
         <v>2751355</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59196DDE-C40E-4898-9191-EFF2EF9F7A87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7643318F-F580-45D8-ADF7-7CE38FD94F82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2520,7 +2520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2627,13 +2627,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2657,13 +2657,13 @@
         <v>1739</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>64790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>111</v>
@@ -2785,10 +2785,10 @@
         <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2797,13 +2797,13 @@
         <v>3155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2812,13 +2812,13 @@
         <v>8801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2833,13 @@
         <v>354883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -2848,13 +2848,13 @@
         <v>143134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -2863,13 +2863,13 @@
         <v>498016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2937,13 @@
         <v>12085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2952,13 +2952,13 @@
         <v>1028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2967,13 +2967,13 @@
         <v>13113</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2988,13 @@
         <v>580473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -3125,10 +3125,10 @@
         <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>443556</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -3161,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3173,13 +3173,13 @@
         <v>651302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3247,13 @@
         <v>17132</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3262,13 +3262,13 @@
         <v>3797</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3277,13 +3277,13 @@
         <v>20930</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3298,13 @@
         <v>540018</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3405,10 +3405,10 @@
         <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3420,10 +3420,10 @@
         <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3432,13 +3432,13 @@
         <v>60654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3453,13 @@
         <v>1983719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>951</v>
@@ -3483,13 +3483,13 @@
         <v>3019172</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3545,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +3566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683A2976-BA3B-4E18-8D79-E81854B4A495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E850C789-4F14-46F7-B222-8913606F813B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3583,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3690,13 +3690,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3720,13 +3720,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,10 +3741,10 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3759,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3771,10 +3771,10 @@
         <v>119469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3845,13 +3845,13 @@
         <v>5536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3860,13 +3860,13 @@
         <v>2303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3875,13 +3875,13 @@
         <v>7839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3896,13 @@
         <v>338978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3911,10 +3911,10 @@
         <v>147860</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3926,13 +3926,13 @@
         <v>486839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,10 +4003,10 @@
         <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4015,13 +4015,13 @@
         <v>3031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4030,13 +4030,13 @@
         <v>19927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4051,13 @@
         <v>557659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4066,13 +4066,13 @@
         <v>320231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -4081,13 +4081,13 @@
         <v>877889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4155,13 @@
         <v>8447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4170,13 +4170,13 @@
         <v>959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4185,13 +4185,13 @@
         <v>9405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4206,13 @@
         <v>415452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4221,10 +4221,10 @@
         <v>228707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4236,13 +4236,13 @@
         <v>644161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4310,13 @@
         <v>8025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4325,13 +4325,13 @@
         <v>9191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4340,13 +4340,13 @@
         <v>17216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4361,13 @@
         <v>565153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4376,13 +4376,13 @@
         <v>397668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>928</v>
@@ -4391,13 +4391,13 @@
         <v>962821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4465,13 @@
         <v>40012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4480,13 +4480,13 @@
         <v>15484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4495,13 +4495,13 @@
         <v>55495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4516,13 @@
         <v>1961350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>1081</v>
@@ -4531,13 +4531,13 @@
         <v>1129828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4546,13 +4546,13 @@
         <v>3091179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4608,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5956EA-3D46-499C-9165-7BFAD75BD0E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B4D7F3-419A-4DAB-A9C0-5AEB633EB36F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4646,7 +4646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4753,13 +4753,13 @@
         <v>1315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4783,13 +4783,13 @@
         <v>1315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +4804,10 @@
         <v>44692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4822,7 +4822,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4834,10 +4834,10 @@
         <v>71956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4908,13 +4908,13 @@
         <v>3907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4923,13 +4923,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4938,13 +4938,13 @@
         <v>5316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4959,13 @@
         <v>285024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -4974,10 +4974,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4989,13 +4989,13 @@
         <v>424643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5063,13 @@
         <v>8432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5078,13 +5078,13 @@
         <v>5994</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5093,13 +5093,13 @@
         <v>14426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5114,13 @@
         <v>478717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5129,13 +5129,13 @@
         <v>212637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>713</v>
@@ -5144,13 +5144,13 @@
         <v>691354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,10 +5221,10 @@
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5233,13 +5233,13 @@
         <v>4732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5248,13 +5248,13 @@
         <v>8994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,10 +5272,10 @@
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -5284,13 +5284,13 @@
         <v>283760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
@@ -5299,13 +5299,13 @@
         <v>609395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5373,13 @@
         <v>11161</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5391,10 +5391,10 @@
         <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5403,13 +5403,13 @@
         <v>14508</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5424,13 @@
         <v>448308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5439,13 +5439,13 @@
         <v>308258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -5528,13 +5528,13 @@
         <v>29077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5546,7 +5546,7 @@
         <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>324</v>
@@ -5558,13 +5558,13 @@
         <v>44561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,28 +5579,28 @@
         <v>1582375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>1173</v>
       </c>
       <c r="I20" s="7">
-        <v>971538</v>
+        <v>971539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>2718</v>
@@ -5609,13 +5609,13 @@
         <v>2553913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,7 +5642,7 @@
         <v>1195</v>
       </c>
       <c r="I21" s="7">
-        <v>987021</v>
+        <v>987022</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C5A68B6-C915-4090-A95D-1355528CE52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F8B48E-1AF4-4A40-91A4-953BFB1548D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39ED7364-C5E3-442E-9602-D1D044FA60EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55349F36-99AC-4464-B0EF-284FAB531DAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="334">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,32%</t>
+    <t>7,5%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>6,2%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,68%</t>
+    <t>92,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,919 +116,931 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>97,72%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4C1EED-BBA2-471A-8D73-1F17E616F826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3857DB5-CA85-4208-BFE1-997C5E87EB82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2062,10 +2074,10 @@
         <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2092,13 @@
         <v>323424</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -2095,10 +2107,10 @@
         <v>129425</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2110,13 +2122,13 @@
         <v>452849</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,7 +2184,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2196,13 @@
         <v>2614</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2199,13 +2211,13 @@
         <v>2035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2214,13 +2226,13 @@
         <v>4650</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2247,13 @@
         <v>526035</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -2250,10 +2262,10 @@
         <v>303020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2265,13 +2277,13 @@
         <v>829054</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2351,13 @@
         <v>20089</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2354,13 +2366,13 @@
         <v>2959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2369,13 +2381,13 @@
         <v>23048</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2402,13 @@
         <v>1860815</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>870</v>
@@ -2405,7 +2417,7 @@
         <v>890540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
@@ -2417,7 +2429,7 @@
         <v>2696</v>
       </c>
       <c r="N20" s="7">
-        <v>2751355</v>
+        <v>2751356</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>101</v>
@@ -2468,7 +2480,7 @@
         <v>2719</v>
       </c>
       <c r="N21" s="7">
-        <v>2774403</v>
+        <v>2774404</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2503,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7643318F-F580-45D8-ADF7-7CE38FD94F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D51503-F569-4AA0-8756-6D1FBDF50FB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2627,13 +2639,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2642,13 +2654,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2657,13 +2669,13 @@
         <v>1739</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,10 +2690,10 @@
         <v>64790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2693,10 +2705,10 @@
         <v>28095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2708,10 +2720,10 @@
         <v>92884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2782,13 +2794,13 @@
         <v>5645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2797,13 +2809,13 @@
         <v>3155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2812,10 +2824,10 @@
         <v>8801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>124</v>
@@ -2839,7 +2851,7 @@
         <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -2848,13 +2860,13 @@
         <v>143134</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -2863,13 +2875,13 @@
         <v>498016</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2949,13 @@
         <v>12085</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2952,13 +2964,13 @@
         <v>1028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2967,10 +2979,10 @@
         <v>13113</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>139</v>
@@ -2994,7 +3006,7 @@
         <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -3003,10 +3015,10 @@
         <v>295432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3018,13 +3030,13 @@
         <v>875905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3104,13 @@
         <v>16071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3113,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3122,13 +3134,13 @@
         <v>16071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3155,13 @@
         <v>443556</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -3161,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3173,13 +3185,13 @@
         <v>651302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3247,13 +3259,13 @@
         <v>17132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3262,13 +3274,13 @@
         <v>3797</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3277,13 +3289,13 @@
         <v>20930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3310,13 @@
         <v>540018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3405,10 +3417,10 @@
         <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3420,10 +3432,10 @@
         <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3432,13 +3444,13 @@
         <v>60654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3465,13 @@
         <v>1983719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>951</v>
@@ -3483,13 +3495,13 @@
         <v>3019172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E850C789-4F14-46F7-B222-8913606F813B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B775EB-258B-4237-AC5C-0169CAF35B3F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3690,13 +3702,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3711,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3720,13 +3732,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3753,7 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>195</v>
@@ -3848,10 +3860,10 @@
         <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3860,13 +3872,13 @@
         <v>2303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3875,13 +3887,13 @@
         <v>7839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3908,13 @@
         <v>338978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3911,10 +3923,10 @@
         <v>147860</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3926,13 +3938,13 @@
         <v>486839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4012,13 @@
         <v>16896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4015,13 +4027,13 @@
         <v>3031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4030,13 +4042,13 @@
         <v>19927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4063,13 @@
         <v>557659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4066,13 +4078,13 @@
         <v>320231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -4081,13 +4093,13 @@
         <v>877889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4167,13 @@
         <v>8447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4170,13 +4182,13 @@
         <v>959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4185,13 +4197,13 @@
         <v>9405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4218,13 @@
         <v>415452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4221,10 +4233,10 @@
         <v>228707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4236,13 +4248,13 @@
         <v>644161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4310,13 +4322,13 @@
         <v>8025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4325,13 +4337,13 @@
         <v>9191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4340,13 +4352,13 @@
         <v>17216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4373,13 @@
         <v>565153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4376,13 +4388,13 @@
         <v>397668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>928</v>
@@ -4391,13 +4403,13 @@
         <v>962821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4477,13 @@
         <v>40012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4480,13 +4492,13 @@
         <v>15484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4495,13 +4507,13 @@
         <v>55495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4528,13 @@
         <v>1961350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1081</v>
@@ -4531,13 +4543,13 @@
         <v>1129828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4546,13 +4558,13 @@
         <v>3091179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B4D7F3-419A-4DAB-A9C0-5AEB633EB36F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174806E7-3812-4AB8-A863-63FD0EB34F07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4646,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4753,13 +4765,13 @@
         <v>1315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4774,7 +4786,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4783,13 +4795,13 @@
         <v>1315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +4816,10 @@
         <v>44692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4822,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4834,10 +4846,10 @@
         <v>71956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4908,13 +4920,13 @@
         <v>3907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4923,13 +4935,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4938,13 +4950,13 @@
         <v>5316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4971,13 @@
         <v>285024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -4974,10 +4986,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4989,13 +5001,13 @@
         <v>424643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5075,13 @@
         <v>8432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5078,13 +5090,13 @@
         <v>5994</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5093,13 +5105,13 @@
         <v>14426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5126,13 @@
         <v>478717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5129,13 +5141,13 @@
         <v>212637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
         <v>713</v>
@@ -5147,10 +5159,10 @@
         <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5230,13 @@
         <v>4263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5233,13 +5245,13 @@
         <v>4732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5248,13 +5260,13 @@
         <v>8994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5281,13 @@
         <v>325634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -5284,13 +5296,13 @@
         <v>283760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
@@ -5299,13 +5311,13 @@
         <v>609395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,7 +5373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5373,13 +5385,13 @@
         <v>11161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5388,13 +5400,13 @@
         <v>3348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5403,13 +5415,13 @@
         <v>14508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5436,13 @@
         <v>448308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5439,13 +5451,13 @@
         <v>308258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -5454,13 +5466,13 @@
         <v>756567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5540,13 @@
         <v>29077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5543,13 +5555,13 @@
         <v>15483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -5558,13 +5570,13 @@
         <v>44561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5591,13 @@
         <v>1582375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>1173</v>
@@ -5597,10 +5609,10 @@
         <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>2718</v>
@@ -5609,10 +5621,10 @@
         <v>2553913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>37</v>

--- a/data/trans_orig/P32A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F8B48E-1AF4-4A40-91A4-953BFB1548D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C2DF9E-1315-4600-9E57-9910B5D53092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{55349F36-99AC-4464-B0EF-284FAB531DAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4FC7693-B75C-4608-AF28-EF8147441B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="330">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>8,43%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,5%</t>
+    <t>91,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>94,67%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,10 +125,10 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -140,907 +140,895 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3857DB5-CA85-4208-BFE1-997C5E87EB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B773A30A-842B-4D33-AB47-EB60870D5B84}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,10 +2062,10 @@
         <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2080,13 @@
         <v>323424</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>134</v>
@@ -2107,10 +2095,10 @@
         <v>129425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2122,13 +2110,13 @@
         <v>452849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,7 +2172,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2196,13 +2184,13 @@
         <v>2614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2211,13 +2199,13 @@
         <v>2035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2226,13 +2214,13 @@
         <v>4650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2235,13 @@
         <v>526035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -2262,10 +2250,10 @@
         <v>303020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2277,13 +2265,13 @@
         <v>829054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2339,13 @@
         <v>20089</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2366,13 +2354,13 @@
         <v>2959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -2381,13 +2369,13 @@
         <v>23048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,28 +2405,28 @@
         <v>890540</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>2696</v>
       </c>
       <c r="N20" s="7">
-        <v>2751356</v>
+        <v>2751355</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,7 +2468,7 @@
         <v>2719</v>
       </c>
       <c r="N21" s="7">
-        <v>2774404</v>
+        <v>2774403</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2494,7 +2482,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D51503-F569-4AA0-8756-6D1FBDF50FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9B18B3-3C19-4CB0-AA52-632F2C8D8EB3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2532,7 +2520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2639,13 +2627,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2654,13 +2642,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2669,13 +2657,13 @@
         <v>1739</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,10 +2678,10 @@
         <v>64790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2705,10 +2693,10 @@
         <v>28095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2720,10 +2708,10 @@
         <v>92884</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2794,13 +2782,13 @@
         <v>5645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2809,13 +2797,13 @@
         <v>3155</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2824,13 +2812,13 @@
         <v>8801</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,10 +2833,10 @@
         <v>354883</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -2860,13 +2848,13 @@
         <v>143134</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -2875,13 +2863,13 @@
         <v>498016</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,10 +2970,10 @@
         <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2988,13 @@
         <v>580473</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -3015,10 +3003,10 @@
         <v>295432</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3030,13 +3018,13 @@
         <v>875905</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3092,13 @@
         <v>16071</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3125,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3134,13 +3122,13 @@
         <v>16071</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3143,13 @@
         <v>443556</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>182</v>
@@ -3247,7 +3235,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3262,7 +3250,7 @@
         <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>161</v>
@@ -3316,7 +3304,7 @@
         <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>340</v>
@@ -3417,7 +3405,7 @@
         <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>177</v>
@@ -3471,7 +3459,7 @@
         <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>951</v>
@@ -3557,7 +3545,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B775EB-258B-4237-AC5C-0169CAF35B3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D229F8-277A-48CF-9807-0D38B06B74A7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3702,13 +3690,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3723,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3732,13 +3720,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +3741,10 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3771,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3783,10 +3771,10 @@
         <v>119469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3857,13 +3845,13 @@
         <v>5536</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3872,13 +3860,13 @@
         <v>2303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3887,13 +3875,13 @@
         <v>7839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3896,13 @@
         <v>338978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>152</v>
@@ -3923,10 +3911,10 @@
         <v>147860</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3938,13 +3926,13 @@
         <v>486839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4000,13 @@
         <v>16896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4027,13 +4015,13 @@
         <v>3031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4042,13 +4030,13 @@
         <v>19927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4051,13 @@
         <v>557659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4078,13 +4066,13 @@
         <v>320231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -4093,13 +4081,13 @@
         <v>877889</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4155,13 @@
         <v>8447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4182,13 +4170,13 @@
         <v>959</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4197,13 +4185,13 @@
         <v>9405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4206,13 @@
         <v>415452</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -4233,10 +4221,10 @@
         <v>228707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4248,13 +4236,13 @@
         <v>644161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4298,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4322,10 +4310,10 @@
         <v>8025</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>244</v>
@@ -4340,10 +4328,10 @@
         <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4352,13 +4340,13 @@
         <v>17216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4361,13 @@
         <v>565153</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4388,13 +4376,13 @@
         <v>397668</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>928</v>
@@ -4403,13 +4391,13 @@
         <v>962821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,10 +4465,10 @@
         <v>40012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>257</v>
@@ -4495,10 +4483,10 @@
         <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4507,13 +4495,13 @@
         <v>55495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4516,13 @@
         <v>1961350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>1081</v>
@@ -4543,13 +4531,13 @@
         <v>1129828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4558,13 +4546,13 @@
         <v>3091179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4608,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174806E7-3812-4AB8-A863-63FD0EB34F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8731E665-E20C-4969-B532-3787A7184FAD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4765,13 +4753,13 @@
         <v>1315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4786,7 +4774,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4816,10 +4804,10 @@
         <v>44692</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4834,7 +4822,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4926,7 +4914,7 @@
         <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4935,7 +4923,7 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -4956,7 +4944,7 @@
         <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,10 +4959,10 @@
         <v>285024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>280</v>
@@ -4986,10 +4974,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5001,13 +4989,13 @@
         <v>424643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5063,13 @@
         <v>8432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5090,13 +5078,13 @@
         <v>5994</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -5108,10 +5096,10 @@
         <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5114,13 @@
         <v>478717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5141,13 +5129,13 @@
         <v>212637</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>713</v>
@@ -5156,13 +5144,13 @@
         <v>691354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5218,13 @@
         <v>4263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5245,13 +5233,13 @@
         <v>4732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5260,13 +5248,13 @@
         <v>8994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5269,13 @@
         <v>325634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>235</v>
@@ -5317,7 +5305,7 @@
         <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5388,7 +5376,7 @@
         <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>311</v>
@@ -5400,13 +5388,13 @@
         <v>3348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5415,13 +5403,13 @@
         <v>14508</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5424,13 @@
         <v>448308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5454,10 +5442,10 @@
         <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>880</v>
@@ -5466,13 +5454,13 @@
         <v>756567</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,10 +5531,10 @@
         <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5555,13 +5543,13 @@
         <v>15483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -5570,13 +5558,13 @@
         <v>44561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,25 +5582,25 @@
         <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>1173</v>
       </c>
       <c r="I20" s="7">
-        <v>971539</v>
+        <v>971538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>2718</v>
@@ -5621,13 +5609,13 @@
         <v>2553913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,7 +5642,7 @@
         <v>1195</v>
       </c>
       <c r="I21" s="7">
-        <v>987022</v>
+        <v>987021</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5683,7 +5671,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C2DF9E-1315-4600-9E57-9910B5D53092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3480840-A3B9-4E84-BFD8-D9F10DC0DCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4FC7693-B75C-4608-AF28-EF8147441B2E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE29F932-0F91-4141-82B1-6DEF335C0675}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="291">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,967 +68,850 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B773A30A-842B-4D33-AB47-EB60870D5B84}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F71E444-782B-4CFF-8B04-B35C05365EEB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1558,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1073</v>
+        <v>4867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1579,79 +1462,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1073</v>
+        <v>4867</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="D5" s="7">
-        <v>71008</v>
+        <v>434452</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>29283</v>
+        <v>179585</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>607</v>
       </c>
       <c r="N5" s="7">
-        <v>100292</v>
+        <v>614037</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,72 +1543,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="D6" s="7">
-        <v>72081</v>
+        <v>439319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>179585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>611</v>
       </c>
       <c r="N6" s="7">
-        <v>101365</v>
+        <v>618904</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3794</v>
+        <v>4994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1734,79 +1617,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>3794</v>
+        <v>4994</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>360</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>363444</v>
+        <v>576905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7">
-        <v>150301</v>
+        <v>278511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="N8" s="7">
-        <v>513745</v>
+        <v>855415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,153 +1698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="D9" s="7">
-        <v>367238</v>
+        <v>581899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="I9" s="7">
-        <v>150301</v>
+        <v>278511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>513</v>
+        <v>805</v>
       </c>
       <c r="N9" s="7">
-        <v>517539</v>
+        <v>860409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>4994</v>
+        <v>7613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>4994</v>
+        <v>8537</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>538</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>576905</v>
+        <v>323424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>278510</v>
+        <v>129425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="N11" s="7">
-        <v>855415</v>
+        <v>452849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,153 +1853,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>543</v>
+        <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>581899</v>
+        <v>331037</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>278510</v>
+        <v>130349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>805</v>
+        <v>453</v>
       </c>
       <c r="N12" s="7">
-        <v>860409</v>
+        <v>461386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>7613</v>
+        <v>2614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>924</v>
+        <v>2035</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>8537</v>
+        <v>4650</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>553</v>
       </c>
       <c r="D14" s="7">
-        <v>323424</v>
+        <v>526035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="I14" s="7">
-        <v>129425</v>
+        <v>303020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>444</v>
+        <v>845</v>
       </c>
       <c r="N14" s="7">
-        <v>452849</v>
+        <v>829054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,153 +2008,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="D15" s="7">
-        <v>331037</v>
+        <v>528649</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="I15" s="7">
-        <v>130349</v>
+        <v>305055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>461386</v>
+        <v>833704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20089</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>2614</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
       <c r="I16" s="7">
-        <v>2035</v>
+        <v>2959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>4650</v>
+        <v>23048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>553</v>
+        <v>1826</v>
       </c>
       <c r="D17" s="7">
-        <v>526035</v>
+        <v>1860815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>292</v>
+        <v>870</v>
       </c>
       <c r="I17" s="7">
-        <v>303020</v>
+        <v>890540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>845</v>
+        <v>2696</v>
       </c>
       <c r="N17" s="7">
-        <v>829054</v>
+        <v>2751355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,217 +2163,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>556</v>
+        <v>1846</v>
       </c>
       <c r="D18" s="7">
-        <v>528649</v>
+        <v>1880904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>294</v>
+        <v>873</v>
       </c>
       <c r="I18" s="7">
-        <v>305055</v>
+        <v>893499</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>850</v>
+        <v>2719</v>
       </c>
       <c r="N18" s="7">
-        <v>833704</v>
+        <v>2774403</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20089</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="7">
-        <v>23</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23048</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1826</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1860815</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7">
-        <v>870</v>
-      </c>
-      <c r="I20" s="7">
-        <v>890540</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2696</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2751355</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1846</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1880904</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>873</v>
-      </c>
-      <c r="I21" s="7">
-        <v>893499</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2719</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2774403</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2503,8 +2230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9B18B3-3C19-4CB0-AA52-632F2C8D8EB3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF4F3F3-81F9-4B48-B215-734721BE6319}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2520,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2621,100 +2348,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>727</v>
+        <v>6372</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1012</v>
+        <v>4167</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>1739</v>
+        <v>10539</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>401</v>
       </c>
       <c r="D5" s="7">
-        <v>64790</v>
+        <v>419672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>28095</v>
+        <v>171229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7">
-        <v>94</v>
+        <v>560</v>
       </c>
       <c r="N5" s="7">
-        <v>92884</v>
+        <v>590901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,153 +2450,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="D6" s="7">
-        <v>65517</v>
+        <v>426044</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>29107</v>
+        <v>175396</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>96</v>
+        <v>571</v>
       </c>
       <c r="N6" s="7">
-        <v>94623</v>
+        <v>601440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>5645</v>
+        <v>12085</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3155</v>
+        <v>1028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>8801</v>
+        <v>13113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>331</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>354883</v>
+        <v>580473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="I8" s="7">
-        <v>143134</v>
+        <v>295432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>466</v>
+        <v>808</v>
       </c>
       <c r="N8" s="7">
-        <v>498016</v>
+        <v>875905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,153 +2605,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>337</v>
+        <v>547</v>
       </c>
       <c r="D9" s="7">
-        <v>360528</v>
+        <v>592558</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="I9" s="7">
-        <v>146289</v>
+        <v>296460</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>475</v>
+        <v>818</v>
       </c>
       <c r="N9" s="7">
-        <v>506817</v>
+        <v>889018</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>12085</v>
+        <v>16071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>13113</v>
+        <v>16071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>538</v>
+        <v>406</v>
       </c>
       <c r="D11" s="7">
-        <v>580473</v>
+        <v>443556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>295432</v>
+        <v>207746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>808</v>
+        <v>588</v>
       </c>
       <c r="N11" s="7">
-        <v>875905</v>
+        <v>651302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,153 +2760,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="D12" s="7">
-        <v>592558</v>
+        <v>459627</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="I12" s="7">
-        <v>296460</v>
+        <v>207746</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>818</v>
+        <v>602</v>
       </c>
       <c r="N12" s="7">
-        <v>889018</v>
+        <v>667373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>16071</v>
+        <v>17132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>16071</v>
+        <v>20930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="D14" s="7">
-        <v>443556</v>
+        <v>540018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>207746</v>
+        <v>361047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
-        <v>588</v>
+        <v>861</v>
       </c>
       <c r="N14" s="7">
-        <v>651302</v>
+        <v>901065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,153 +2915,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>420</v>
+        <v>539</v>
       </c>
       <c r="D15" s="7">
-        <v>459627</v>
+        <v>557150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="I15" s="7">
-        <v>207746</v>
+        <v>364844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>602</v>
+        <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>667373</v>
+        <v>921995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>17132</v>
+        <v>51661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>3797</v>
+        <v>8993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>20930</v>
+        <v>60654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>521</v>
+        <v>1866</v>
       </c>
       <c r="D17" s="7">
-        <v>540018</v>
+        <v>1983719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
-        <v>340</v>
+        <v>951</v>
       </c>
       <c r="I17" s="7">
-        <v>361047</v>
+        <v>1035453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
-        <v>861</v>
+        <v>2817</v>
       </c>
       <c r="N17" s="7">
-        <v>901065</v>
+        <v>3019173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,217 +3070,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>539</v>
+        <v>1914</v>
       </c>
       <c r="D18" s="7">
-        <v>557150</v>
+        <v>2035380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>343</v>
+        <v>959</v>
       </c>
       <c r="I18" s="7">
-        <v>364844</v>
+        <v>1044446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>882</v>
+        <v>2873</v>
       </c>
       <c r="N18" s="7">
-        <v>921995</v>
+        <v>3079827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7">
-        <v>51661</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8993</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="7">
-        <v>56</v>
-      </c>
-      <c r="N19" s="7">
-        <v>60654</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1866</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1983719</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="7">
-        <v>951</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1035453</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2817</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3019172</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1914</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2035380</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>959</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1044446</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2873</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3079826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3566,8 +3137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D229F8-277A-48CF-9807-0D38B06B74A7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9B3950-F973-41F1-9ABD-FA258A558F52}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3583,7 +3154,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3684,100 +3255,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1108</v>
+        <v>6644</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1108</v>
+        <v>8947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="D5" s="7">
-        <v>84108</v>
+        <v>423086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H5" s="7">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="I5" s="7">
-        <v>35362</v>
+        <v>183222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>595</v>
       </c>
       <c r="N5" s="7">
-        <v>119469</v>
+        <v>606308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,153 +3357,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D6" s="7">
-        <v>85216</v>
+        <v>429730</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I6" s="7">
-        <v>35362</v>
+        <v>185525</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>603</v>
       </c>
       <c r="N6" s="7">
-        <v>120577</v>
+        <v>615255</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>5536</v>
+        <v>16896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2303</v>
+        <v>3031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>7839</v>
+        <v>19927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>324</v>
+        <v>516</v>
       </c>
       <c r="D8" s="7">
-        <v>338978</v>
+        <v>557659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="I8" s="7">
-        <v>147860</v>
+        <v>320231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>476</v>
+        <v>821</v>
       </c>
       <c r="N8" s="7">
-        <v>486839</v>
+        <v>877889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,153 +3512,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="D9" s="7">
-        <v>344514</v>
+        <v>574555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="I9" s="7">
-        <v>150163</v>
+        <v>323262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>483</v>
+        <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>494678</v>
+        <v>897816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>16896</v>
+        <v>8447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3031</v>
+        <v>959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>19927</v>
+        <v>9405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>516</v>
+        <v>377</v>
       </c>
       <c r="D11" s="7">
-        <v>557659</v>
+        <v>415452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>320231</v>
+        <v>228708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>821</v>
+        <v>594</v>
       </c>
       <c r="N11" s="7">
-        <v>877889</v>
+        <v>644161</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,54 +3667,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>531</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>574555</v>
+        <v>423899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>323262</v>
+        <v>229667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>603</v>
       </c>
       <c r="N12" s="7">
-        <v>897816</v>
+        <v>653566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4152,97 +3723,97 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8447</v>
+        <v>8025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>959</v>
+        <v>9191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>9405</v>
+        <v>17216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>377</v>
+        <v>559</v>
       </c>
       <c r="D14" s="7">
-        <v>415452</v>
+        <v>565153</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
-        <v>217</v>
+        <v>369</v>
       </c>
       <c r="I14" s="7">
-        <v>228707</v>
+        <v>397668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
-        <v>594</v>
+        <v>928</v>
       </c>
       <c r="N14" s="7">
-        <v>644161</v>
+        <v>962821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,153 +3822,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>567</v>
       </c>
       <c r="D15" s="7">
-        <v>423899</v>
+        <v>573178</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="I15" s="7">
-        <v>229666</v>
+        <v>406859</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>603</v>
+        <v>944</v>
       </c>
       <c r="N15" s="7">
-        <v>653566</v>
+        <v>980037</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>8025</v>
+        <v>40012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>9191</v>
+        <v>15484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>17216</v>
+        <v>55495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>559</v>
+        <v>1857</v>
       </c>
       <c r="D17" s="7">
-        <v>565153</v>
+        <v>1961350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
-        <v>369</v>
+        <v>1081</v>
       </c>
       <c r="I17" s="7">
-        <v>397668</v>
+        <v>1129828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
-        <v>928</v>
+        <v>2938</v>
       </c>
       <c r="N17" s="7">
-        <v>962821</v>
+        <v>3091179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,217 +3977,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>567</v>
+        <v>1894</v>
       </c>
       <c r="D18" s="7">
-        <v>573178</v>
+        <v>2001362</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>377</v>
+        <v>1095</v>
       </c>
       <c r="I18" s="7">
-        <v>406859</v>
+        <v>1145312</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>944</v>
+        <v>2989</v>
       </c>
       <c r="N18" s="7">
-        <v>980037</v>
+        <v>3146674</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40012</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15484</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="7">
-        <v>51</v>
-      </c>
-      <c r="N19" s="7">
-        <v>55495</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1857</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1961350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1081</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1129828</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2938</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3091179</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1894</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2001362</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1095</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1145312</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2989</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3146674</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4629,8 +4044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8731E665-E20C-4969-B532-3787A7184FAD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F976E6EF-8EE0-4D9B-86B2-57E623CF8523}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4646,7 +4061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4747,100 +4162,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4976</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1315</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1315</v>
+        <v>6284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="D5" s="7">
-        <v>44692</v>
+        <v>327890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="I5" s="7">
-        <v>27264</v>
+        <v>158790</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>95</v>
+        <v>597</v>
       </c>
       <c r="N5" s="7">
-        <v>71956</v>
+        <v>486679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,153 +4264,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="D6" s="7">
-        <v>46007</v>
+        <v>332866</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="I6" s="7">
-        <v>27264</v>
+        <v>160097</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>97</v>
+        <v>606</v>
       </c>
       <c r="N6" s="7">
-        <v>73271</v>
+        <v>492963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>3907</v>
+        <v>7914</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>1410</v>
+        <v>5547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>5316</v>
+        <v>13462</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="D8" s="7">
-        <v>285024</v>
+        <v>468842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="7">
         <v>280</v>
       </c>
-      <c r="H8" s="7">
-        <v>205</v>
-      </c>
       <c r="I8" s="7">
-        <v>139618</v>
+        <v>195408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
-        <v>502</v>
+        <v>713</v>
       </c>
       <c r="N8" s="7">
-        <v>424643</v>
+        <v>664249</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,153 +4419,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D9" s="7">
-        <v>288931</v>
+        <v>476756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="I9" s="7">
-        <v>141028</v>
+        <v>200955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>509</v>
+        <v>731</v>
       </c>
       <c r="N9" s="7">
-        <v>429959</v>
+        <v>677711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>8432</v>
+        <v>4084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5994</v>
+        <v>4110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>14426</v>
+        <v>8194</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>433</v>
+        <v>293</v>
       </c>
       <c r="D11" s="7">
-        <v>478717</v>
+        <v>317157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>212637</v>
+        <v>364424</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>713</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>691354</v>
+        <v>681582</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,153 +4574,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>443</v>
+        <v>299</v>
       </c>
       <c r="D12" s="7">
-        <v>487149</v>
+        <v>321241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="I12" s="7">
-        <v>218631</v>
+        <v>368534</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>731</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>705780</v>
+        <v>689776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>4263</v>
+        <v>11013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4732</v>
+        <v>3132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>8994</v>
+        <v>14145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>293</v>
+        <v>470</v>
       </c>
       <c r="D14" s="7">
-        <v>325634</v>
+        <v>431661</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>235</v>
+        <v>410</v>
       </c>
       <c r="I14" s="7">
-        <v>283760</v>
+        <v>285725</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>880</v>
       </c>
       <c r="N14" s="7">
-        <v>609395</v>
+        <v>717387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,153 +4729,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>299</v>
+        <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>329897</v>
+        <v>442674</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="I15" s="7">
-        <v>288492</v>
+        <v>288857</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>539</v>
+        <v>900</v>
       </c>
       <c r="N15" s="7">
-        <v>618389</v>
+        <v>731532</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>11161</v>
+        <v>27988</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>3348</v>
+        <v>14096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>14508</v>
+        <v>42084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>470</v>
+        <v>1545</v>
       </c>
       <c r="D17" s="7">
-        <v>448308</v>
+        <v>1545549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
-        <v>410</v>
+        <v>1173</v>
       </c>
       <c r="I17" s="7">
-        <v>308258</v>
+        <v>1004348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>880</v>
+        <v>2718</v>
       </c>
       <c r="N17" s="7">
-        <v>756567</v>
+        <v>2549897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,217 +4884,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>483</v>
+        <v>1581</v>
       </c>
       <c r="D18" s="7">
-        <v>459469</v>
+        <v>1573537</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>417</v>
+        <v>1195</v>
       </c>
       <c r="I18" s="7">
-        <v>311606</v>
+        <v>1018444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>900</v>
+        <v>2776</v>
       </c>
       <c r="N18" s="7">
-        <v>771075</v>
+        <v>2591981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29077</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="7">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15483</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" s="7">
-        <v>58</v>
-      </c>
-      <c r="N19" s="7">
-        <v>44561</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1545</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1582375</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1173</v>
-      </c>
-      <c r="I20" s="7">
-        <v>971538</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2718</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2553913</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1581</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1611452</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1195</v>
-      </c>
-      <c r="I21" s="7">
-        <v>987021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2776</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2598474</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
